--- a/biology/Zoologie/Ctenophorus_maculatus/Ctenophorus_maculatus.xlsx
+++ b/biology/Zoologie/Ctenophorus_maculatus/Ctenophorus_maculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenophorus maculatus est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophorus maculatus est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Australie-Méridionale et en Australie-Occidentale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Méridionale et en Australie-Occidentale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 janvier 2014) :
 Ctenophorus maculatus badius (Storr, 1965)
 Ctenophorus maculatus dualis (Storr, 1965)
 Ctenophorus maculatus griseus (Storr, 1965)
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).
 Storr,  1965 : The Amphibolurus maculatus species-group (Lacertilia: Agamidae) in Western Australia. Journal of The Royal Society of Western Australia, vol. 48, p. 45-54.</t>
